--- a/casos de prueba.xlsx
+++ b/casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duoc Alameda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D03ADDF-5866-4107-860B-4ED4EC9FE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D6DBD-B6CA-4C87-8EBF-BC5CC6921F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5705F9E1-E40A-4B1D-A0CF-E4AE7DF81173}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>El sistema bloque a todos los usuarios con devoluciones pendientes automaticamente, y envia una notificacion de bloqueo a el bibliotecario, el bibliotecario podra ver a todos los usuarios bloqueados en la seccion 'Devoluciones Pendientes'</t>
+  </si>
+  <si>
+    <t>Listo</t>
   </si>
 </sst>
 </file>
@@ -577,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1960EA-81F1-419E-B0CF-4B938DCF1A0C}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -704,7 +707,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -727,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">

--- a/casos de prueba.xlsx
+++ b/casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duoc Alameda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D6DBD-B6CA-4C87-8EBF-BC5CC6921F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260F228-907F-4C34-8C7B-D6ACF5725647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5705F9E1-E40A-4B1D-A0CF-E4AE7DF81173}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1960EA-81F1-419E-B0CF-4B938DCF1A0C}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">

--- a/casos de prueba.xlsx
+++ b/casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duoc Alameda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260F228-907F-4C34-8C7B-D6ACF5725647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85201B00-97F7-41E1-ADB1-6D5FB068ABB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5705F9E1-E40A-4B1D-A0CF-E4AE7DF81173}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>El sistema muestra un mensaje de confirmacion y el nuevo libro aparece en el catalogo</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
   <si>
     <t>Registrar nuevo Usuario</t>
@@ -580,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1960EA-81F1-419E-B0CF-4B938DCF1A0C}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -638,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,22 +643,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,22 +666,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,22 +689,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,91 +712,91 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
